--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gm105550/projects/workday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5FBACD-B0D9-374C-9B42-57BE6A459464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40310935-71F4-DF41-9BCD-77FD92A43744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{C4BC8066-5746-9F40-81C1-49203985D1EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Goal</t>
   </si>
@@ -50,59 +50,71 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Build and continuously improve an agile, efficient and effective operating model</t>
-  </si>
-  <si>
-    <t>2 formal knowledge sharing activities for the rest of the team.</t>
-  </si>
-  <si>
-    <t>Define and commit to at least one major technical skill improvement</t>
-  </si>
-  <si>
-    <t>quarterly review and update the project documentation/process &amp; KT material.</t>
-  </si>
-  <si>
-    <t>Get positive feedback from 2 people on written &amp; spoken communication skills</t>
-  </si>
-  <si>
-    <t>Mentor 1 Junior and share progress report.</t>
-  </si>
-  <si>
-    <t>Increase productivity by 10% i.e. time taken in delivery should be reduced.</t>
-  </si>
-  <si>
-    <t>Make employee experience a competitive advantage</t>
-  </si>
-  <si>
-    <t>Meeting invites must have a response (accept/reject/tentative) &amp; Join meetings on time or inform other participants of the delay.</t>
-  </si>
-  <si>
-    <t>Unavailability must be communicated in advance without a miss.</t>
-  </si>
-  <si>
-    <t>Act upon various Team/Department/Company level requests/surveys before the deadline.</t>
-  </si>
-  <si>
-    <t>Active participation in 70% B2B team building activities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suggest and work on at least 2 initiative/innovative ideas or quality left swift which bring value for the group </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define and commit to an IDP (Individual Development Plan) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% compliance on Mandatory training and 70% adoption of LINKED IN learning </t>
-  </si>
-  <si>
     <t>Due Date</t>
+  </si>
+  <si>
+    <t>Quality Left Shift</t>
+  </si>
+  <si>
+    <t>Achieve quality QPI &gt;95%.</t>
+  </si>
+  <si>
+    <t>Achieve a MTTR miss on 0% of production tickets</t>
+  </si>
+  <si>
+    <t>Sprint Tasks to be done with less than 10% Variance. Difference between estimated effort and actual effort.</t>
+  </si>
+  <si>
+    <t>All deliverables to be AW4SW/AW4ST level 2 compliant</t>
+  </si>
+  <si>
+    <t>No defect leakage should be there from QA. </t>
+  </si>
+  <si>
+    <t>For dev reopened defects should be 0</t>
+  </si>
+  <si>
+    <t>Ownership and Accountability</t>
+  </si>
+  <si>
+    <t>Contribute in grooming meetings, understand requirements and provide better estimation for every task and maintain at least 80% attendence</t>
+  </si>
+  <si>
+    <t>Take end to end ownership of tasks. Jira tickets must have due dates, sub-tasks, time log and updated status before DSM.</t>
+  </si>
+  <si>
+    <t>Delivery on the committed due date or earlier. Achieve at least 75% success ratio for sprints.</t>
+  </si>
+  <si>
+    <t>Create a back-up who should be able to take up your work in your planned absence.</t>
+  </si>
+  <si>
+    <t>Provide RCAs of issues and provide solutions to the problems. Be able to work independently.</t>
+  </si>
+  <si>
+    <t>People &amp; Culture</t>
+  </si>
+  <si>
+    <t>Meeting invites must have a response (accept/reject/tentative) &amp; Join meetings on time.</t>
+  </si>
+  <si>
+    <t>Unavailability must be communicated in advance without a miss. Must set Out of Office reply. Apply planned leaves in workday in advance.</t>
+  </si>
+  <si>
+    <t>Act upon various Team/Department/Company level requests/surveys before the deadline. Maintain healthy work environment, team culture with co-operation and collaboration.</t>
+  </si>
+  <si>
+    <t>Adhere to team guidelines and SLAs like core working hours, minimum work days from office etc.</t>
+  </si>
+  <si>
+    <t>Active participation in at least 6 team building activities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +135,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -138,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -231,11 +249,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,26 +273,25 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF14E14-F164-AF41-9DAD-D760E05BA4E5}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +621,7 @@
     <col min="6" max="6" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,176 +629,280 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>45565</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="H11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="H12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+        <v>45565</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>45199</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>45565</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
